--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H2">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I2">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J2">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N2">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="O2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q2">
-        <v>11.41051554337361</v>
+        <v>12.05929263766934</v>
       </c>
       <c r="R2">
-        <v>11.41051554337361</v>
+        <v>108.533633739024</v>
       </c>
       <c r="S2">
-        <v>0.2568090662362298</v>
+        <v>0.1950517113496276</v>
       </c>
       <c r="T2">
-        <v>0.2568090662362298</v>
+        <v>0.1950517113496276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H3">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I3">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J3">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N3">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q3">
-        <v>14.30899032362828</v>
+        <v>14.54075677866133</v>
       </c>
       <c r="R3">
-        <v>14.30899032362828</v>
+        <v>130.866811007952</v>
       </c>
       <c r="S3">
-        <v>0.3220431565800908</v>
+        <v>0.2351878820103611</v>
       </c>
       <c r="T3">
-        <v>0.3220431565800908</v>
+        <v>0.2351878820103611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.97579826272787</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H4">
-        <v>4.97579826272787</v>
+        <v>14.971668</v>
       </c>
       <c r="I4">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J4">
-        <v>0.8805838303323381</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="N4">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="O4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="P4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="Q4">
-        <v>13.40650954402679</v>
+        <v>0.1458107381706667</v>
       </c>
       <c r="R4">
-        <v>13.40650954402679</v>
+        <v>1.312296643536</v>
       </c>
       <c r="S4">
-        <v>0.3017316075160175</v>
+        <v>0.002358399855436102</v>
       </c>
       <c r="T4">
-        <v>0.3017316075160175</v>
+        <v>0.002358399855436102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.352557748248975</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H5">
-        <v>0.352557748248975</v>
+        <v>14.971668</v>
       </c>
       <c r="I5">
-        <v>0.06239333589787173</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J5">
-        <v>0.06239333589787173</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.29320300801706</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N5">
-        <v>2.29320300801706</v>
+        <v>0.085553</v>
       </c>
       <c r="O5">
-        <v>0.2916350009962236</v>
+        <v>0.003220794087830817</v>
       </c>
       <c r="P5">
-        <v>0.2916350009962236</v>
+        <v>0.003220794087830818</v>
       </c>
       <c r="Q5">
-        <v>0.8084864887842709</v>
+        <v>0.1423190124893333</v>
       </c>
       <c r="R5">
-        <v>0.8084864887842709</v>
+        <v>1.280871112404</v>
       </c>
       <c r="S5">
-        <v>0.01819608057673354</v>
+        <v>0.002301923319857218</v>
       </c>
       <c r="T5">
-        <v>0.01819608057673354</v>
+        <v>0.002301923319857218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.352557748248975</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H6">
-        <v>0.352557748248975</v>
+        <v>14.971668</v>
       </c>
       <c r="I6">
-        <v>0.06239333589787173</v>
+        <v>0.7147067639482496</v>
       </c>
       <c r="J6">
-        <v>0.06239333589787173</v>
+        <v>0.7147067639482495</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87571753678448</v>
+        <v>3.466422333333333</v>
       </c>
       <c r="N6">
-        <v>2.87571753678448</v>
+        <v>10.399267</v>
       </c>
       <c r="O6">
-        <v>0.3657155008837144</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="P6">
-        <v>0.3657155008837144</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="Q6">
-        <v>1.013856499368825</v>
+        <v>17.29937477415067</v>
       </c>
       <c r="R6">
-        <v>1.013856499368825</v>
+        <v>155.694372967356</v>
       </c>
       <c r="S6">
-        <v>0.022818210089696</v>
+        <v>0.2798068474129675</v>
       </c>
       <c r="T6">
-        <v>0.022818210089696</v>
+        <v>0.2798068474129675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +838,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.352557748248975</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H7">
-        <v>0.352557748248975</v>
+        <v>2.221859</v>
       </c>
       <c r="I7">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J7">
-        <v>0.06239333589787173</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.69434346734889</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N7">
-        <v>2.69434346734889</v>
+        <v>7.249268</v>
       </c>
       <c r="O7">
-        <v>0.342649498120062</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P7">
-        <v>0.342649498120062</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q7">
-        <v>0.9499116658578605</v>
+        <v>1.789650149912445</v>
       </c>
       <c r="R7">
-        <v>0.9499116658578605</v>
+        <v>16.106851349212</v>
       </c>
       <c r="S7">
-        <v>0.0213790452314422</v>
+        <v>0.02894650083929007</v>
       </c>
       <c r="T7">
-        <v>0.0213790452314422</v>
+        <v>0.02894650083929007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.322211364136063</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H8">
-        <v>0.322211364136063</v>
+        <v>2.221859</v>
       </c>
       <c r="I8">
-        <v>0.05702283376979018</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J8">
-        <v>0.05702283376979018</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29320300801706</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N8">
-        <v>2.29320300801706</v>
+        <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.2916350009962236</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P8">
-        <v>0.2916350009962236</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q8">
-        <v>0.7388960694540999</v>
+        <v>2.157909948008445</v>
       </c>
       <c r="R8">
-        <v>0.7388960694540999</v>
+        <v>19.421189532076</v>
       </c>
       <c r="S8">
-        <v>0.01662985418326026</v>
+        <v>0.03490287871302375</v>
       </c>
       <c r="T8">
-        <v>0.01662985418326026</v>
+        <v>0.03490287871302376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.322211364136063</v>
+        <v>0.7406196666666668</v>
       </c>
       <c r="H9">
-        <v>0.322211364136063</v>
+        <v>2.221859</v>
       </c>
       <c r="I9">
-        <v>0.05702283376979018</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="J9">
-        <v>0.05702283376979018</v>
+        <v>0.1060655135980369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.87571753678448</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="N9">
-        <v>2.87571753678448</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="O9">
-        <v>0.3657155008837144</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="P9">
-        <v>0.3657155008837144</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="Q9">
-        <v>0.9265888703973262</v>
+        <v>0.02163893167422223</v>
       </c>
       <c r="R9">
-        <v>0.9265888703973262</v>
+        <v>0.194750385068</v>
       </c>
       <c r="S9">
-        <v>0.0208541342139276</v>
+        <v>0.0003499965364179464</v>
       </c>
       <c r="T9">
-        <v>0.0208541342139276</v>
+        <v>0.0003499965364179465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7406196666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.221859</v>
+      </c>
+      <c r="I10">
+        <v>0.1060655135980369</v>
+      </c>
+      <c r="J10">
+        <v>0.1060655135980369</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.085553</v>
+      </c>
+      <c r="O10">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P10">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q10">
+        <v>0.02112074478077778</v>
+      </c>
+      <c r="R10">
+        <v>0.190086703027</v>
+      </c>
+      <c r="S10">
+        <v>0.0003416151791192964</v>
+      </c>
+      <c r="T10">
+        <v>0.0003416151791192964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7406196666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.221859</v>
+      </c>
+      <c r="I11">
+        <v>0.1060655135980369</v>
+      </c>
+      <c r="J11">
+        <v>0.1060655135980369</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N11">
+        <v>10.399267</v>
+      </c>
+      <c r="O11">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P11">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q11">
+        <v>2.567300553039223</v>
+      </c>
+      <c r="R11">
+        <v>23.105704977353</v>
+      </c>
+      <c r="S11">
+        <v>0.04152452233018582</v>
+      </c>
+      <c r="T11">
+        <v>0.04152452233018583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4247756666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.274327</v>
+      </c>
+      <c r="I12">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="J12">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.249268</v>
+      </c>
+      <c r="O12">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P12">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q12">
+        <v>1.026437549181778</v>
+      </c>
+      <c r="R12">
+        <v>9.237937942636</v>
+      </c>
+      <c r="S12">
+        <v>0.01660200200599138</v>
+      </c>
+      <c r="T12">
+        <v>0.01660200200599138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4247756666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.274327</v>
+      </c>
+      <c r="I13">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="J13">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.740964</v>
+      </c>
+      <c r="O13">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P13">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q13">
+        <v>1.237649603469778</v>
+      </c>
+      <c r="R13">
+        <v>11.138846431228</v>
+      </c>
+      <c r="S13">
+        <v>0.02001822830419546</v>
+      </c>
+      <c r="T13">
+        <v>0.02001822830419546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4247756666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.274327</v>
+      </c>
+      <c r="I14">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="J14">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P14">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q14">
+        <v>0.01241081224488889</v>
+      </c>
+      <c r="R14">
+        <v>0.111697310204</v>
+      </c>
+      <c r="S14">
+        <v>0.0002007373268348137</v>
+      </c>
+      <c r="T14">
+        <v>0.0002007373268348137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4247756666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.274327</v>
+      </c>
+      <c r="I15">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="J15">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.085553</v>
+      </c>
+      <c r="O15">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P15">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q15">
+        <v>0.01211361087011111</v>
+      </c>
+      <c r="R15">
+        <v>0.109022497831</v>
+      </c>
+      <c r="S15">
+        <v>0.0001959302756662576</v>
+      </c>
+      <c r="T15">
+        <v>0.0001959302756662577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.322211364136063</v>
-      </c>
-      <c r="H10">
-        <v>0.322211364136063</v>
-      </c>
-      <c r="I10">
-        <v>0.05702283376979018</v>
-      </c>
-      <c r="J10">
-        <v>0.05702283376979018</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="N10">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="O10">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="P10">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="Q10">
-        <v>0.8681480840655759</v>
-      </c>
-      <c r="R10">
-        <v>0.8681480840655759</v>
-      </c>
-      <c r="S10">
-        <v>0.01953884537260233</v>
-      </c>
-      <c r="T10">
-        <v>0.01953884537260233</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4247756666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.274327</v>
+      </c>
+      <c r="I16">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="J16">
+        <v>0.06083290962515873</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N16">
+        <v>10.399267</v>
+      </c>
+      <c r="O16">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P16">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q16">
+        <v>1.472451857589889</v>
+      </c>
+      <c r="R16">
+        <v>13.252066718309</v>
+      </c>
+      <c r="S16">
+        <v>0.02381601171247082</v>
+      </c>
+      <c r="T16">
+        <v>0.02381601171247082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.104601</v>
+      </c>
+      <c r="I17">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J17">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.249268</v>
+      </c>
+      <c r="O17">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P17">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q17">
+        <v>0.8897276313408887</v>
+      </c>
+      <c r="R17">
+        <v>8.007548682068</v>
+      </c>
+      <c r="S17">
+        <v>0.01439080237475945</v>
+      </c>
+      <c r="T17">
+        <v>0.01439080237475945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.104601</v>
+      </c>
+      <c r="I18">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J18">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N18">
+        <v>8.740964</v>
+      </c>
+      <c r="O18">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P18">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q18">
+        <v>1.072808619484889</v>
+      </c>
+      <c r="R18">
+        <v>9.655277575364</v>
+      </c>
+      <c r="S18">
+        <v>0.01735202581679789</v>
+      </c>
+      <c r="T18">
+        <v>0.0173520258167979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.104601</v>
+      </c>
+      <c r="I19">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J19">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P19">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q19">
+        <v>0.01075783187244444</v>
+      </c>
+      <c r="R19">
+        <v>0.09682048685200001</v>
+      </c>
+      <c r="S19">
+        <v>0.0001740013763806794</v>
+      </c>
+      <c r="T19">
+        <v>0.0001740013763806794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.104601</v>
+      </c>
+      <c r="I20">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J20">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.085553</v>
+      </c>
+      <c r="O20">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P20">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q20">
+        <v>0.01050021437255555</v>
+      </c>
+      <c r="R20">
+        <v>0.094501929353</v>
+      </c>
+      <c r="S20">
+        <v>0.0001698345702721702</v>
+      </c>
+      <c r="T20">
+        <v>0.0001698345702721703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3682003333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.104601</v>
+      </c>
+      <c r="I21">
+        <v>0.05273065139862841</v>
+      </c>
+      <c r="J21">
+        <v>0.05273065139862842</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N21">
+        <v>10.399267</v>
+      </c>
+      <c r="O21">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P21">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q21">
+        <v>1.276337858607444</v>
+      </c>
+      <c r="R21">
+        <v>11.487040727467</v>
+      </c>
+      <c r="S21">
+        <v>0.02064398726041823</v>
+      </c>
+      <c r="T21">
+        <v>0.02064398726041823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.375532</v>
+      </c>
+      <c r="I22">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J22">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.249268</v>
+      </c>
+      <c r="O22">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P22">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q22">
+        <v>1.107955567841778</v>
+      </c>
+      <c r="R22">
+        <v>9.971600110576</v>
+      </c>
+      <c r="S22">
+        <v>0.01792050629336531</v>
+      </c>
+      <c r="T22">
+        <v>0.01792050629336531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.375532</v>
+      </c>
+      <c r="I23">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J23">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N23">
+        <v>8.740964</v>
+      </c>
+      <c r="O23">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P23">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q23">
+        <v>1.335941743649778</v>
+      </c>
+      <c r="R23">
+        <v>12.023475692848</v>
+      </c>
+      <c r="S23">
+        <v>0.02160804378760443</v>
+      </c>
+      <c r="T23">
+        <v>0.02160804378760443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.375532</v>
+      </c>
+      <c r="I24">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J24">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P24">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q24">
+        <v>0.01339645898488889</v>
+      </c>
+      <c r="R24">
+        <v>0.120568130864</v>
+      </c>
+      <c r="S24">
+        <v>0.0002166795623538895</v>
+      </c>
+      <c r="T24">
+        <v>0.0002166795623538895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.375532</v>
+      </c>
+      <c r="I25">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J25">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.085553</v>
+      </c>
+      <c r="O25">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P25">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q25">
+        <v>0.01307565435511111</v>
+      </c>
+      <c r="R25">
+        <v>0.117680889196</v>
+      </c>
+      <c r="S25">
+        <v>0.0002114907429158754</v>
+      </c>
+      <c r="T25">
+        <v>0.0002114907429158754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4585106666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.375532</v>
+      </c>
+      <c r="I26">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="J26">
+        <v>0.06566416142992641</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N26">
+        <v>10.399267</v>
+      </c>
+      <c r="O26">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P26">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q26">
+        <v>1.589391615004889</v>
+      </c>
+      <c r="R26">
+        <v>14.304524535044</v>
+      </c>
+      <c r="S26">
+        <v>0.02570744104368691</v>
+      </c>
+      <c r="T26">
+        <v>0.02570744104368692</v>
       </c>
     </row>
   </sheetData>
